--- a/requerimiento_transportes_PUQ.xlsx
+++ b/requerimiento_transportes_PUQ.xlsx
@@ -545,7 +545,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -555,32 +555,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Hotel PUQ</t>
+          <t>Day use PUQ</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>CABO DE HORNOS</t>
+          <t>Cabo de Hornos</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>LA91 SCL-PUQ</t>
+          <t>DAP WPU-PUQ</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>07:54:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>07:54:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -593,27 +593,27 @@
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>Silver Endeavour</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15 00:00:00</t>
+          <t>2024-10-05 00:00:00</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">KAPOMBE </t>
+          <t>Emil Maltha</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIREILLE</t>
+          <t>Zhou</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -710,37 +710,37 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>TBC</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>LA89 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>23:12:00</t>
-        </is>
-      </c>
+          <t>CABO DE HORNOS</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23:12:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>DAP PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -753,17 +753,17 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>SCHMIDT</t>
+          <t>BOGA</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRANZISKA</t>
+          <t xml:space="preserve"> FREADY HOMI</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>India</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -828,17 +828,17 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>SCHMIDT</t>
+          <t>BOCCIA</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRANZISKA</t>
+          <t xml:space="preserve"> ANTONIO</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -860,37 +860,37 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>CABO DE HORNOS</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>LA95 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13:13:00</t>
-        </is>
-      </c>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13:13:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>DAP PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -903,17 +903,17 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>BOGA</t>
+          <t>SCHMIDT</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FREADY HOMI</t>
+          <t xml:space="preserve"> FRANZISKA</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>CABO DE HORNOS</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -978,12 +978,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>BOGA</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FREADY HOMI</t>
+          <t xml:space="preserve"> ROYSTON</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1013,34 +1013,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>LA95 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>23:13:00</t>
-        </is>
-      </c>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23:13:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>CHARTER PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -1053,17 +1053,17 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>FERNANDES</t>
+          <t>MASILI</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ROYSTON</t>
+          <t xml:space="preserve"> ANGELO</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1128,17 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>FERNANDES</t>
+          <t>OWIYO</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ROYSTON</t>
+          <t xml:space="preserve"> ERICK ODONGO</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kenya</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1160,37 +1160,37 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>DIEGO DE ALMAGRO</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>LA91 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-28</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>07:58:00</t>
-        </is>
-      </c>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>07:58:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -1203,17 +1203,17 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>BOCCIA</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANTONIO</t>
+          <t xml:space="preserve"> GARRY</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>DIEGO DE ALMAGRO</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>DAP PUQ-WPU</t>
+          <t>DAP V5420 PUQ-WPU</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>BOCCIA</t>
+          <t>AREVALO</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANTONIO</t>
+          <t xml:space="preserve"> TIMOTEO JR. BARNES</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1313,34 +1313,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>LA91 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-30</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14:52:00</t>
-        </is>
-      </c>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14:52:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -1353,17 +1353,17 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>MASILI</t>
+          <t>BARLAAN</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANGELO</t>
+          <t xml:space="preserve"> MARLON</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>CHARTER PUQ-WPU</t>
+          <t>DAP V5420 PUQ-WPU</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1428,17 +1428,17 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>MASILI</t>
+          <t>CASTILLON</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANGELO</t>
+          <t xml:space="preserve"> JOLLY PANTORILLA</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1463,34 +1463,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>LA95 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-02</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>23:15:00</t>
-        </is>
-      </c>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -1503,17 +1503,17 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>OWIYO</t>
+          <t>GAY-YA</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ERICK ODONGO</t>
+          <t xml:space="preserve"> FELICIANA</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>DAP PUQ-WPU</t>
+          <t>DAP V5420 PUQ-WPU</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1578,17 +1578,17 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>OWIYO</t>
+          <t>GROMIO</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ERICK ODONGO</t>
+          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1613,34 +1613,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>LA295 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>07:59:00</t>
-        </is>
-      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>07:59:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -1653,12 +1653,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>HULLANA</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GARRY</t>
+          <t xml:space="preserve"> RAYMUND GARRIDO</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>LAURENTE</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GARRY</t>
+          <t xml:space="preserve"> REYMARK</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1763,34 +1763,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>LA295 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>07:59:00</t>
-        </is>
-      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>07:59:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -1803,12 +1803,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>AREVALO</t>
+          <t>MACAPOBRE</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIMOTEO JR. BARNES</t>
+          <t xml:space="preserve"> HOMBRE</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>AREVALO</t>
+          <t>MAGDADARO</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIMOTEO JR. BARNES</t>
+          <t xml:space="preserve"> RAFFY</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1913,34 +1913,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>LA295 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>14:53:00</t>
-        </is>
-      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -1953,12 +1953,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>BARLAAN</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARLON</t>
+          <t xml:space="preserve"> RUEL</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2024-05-12</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>BARLAAN</t>
+          <t>NUNEZ</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARLON</t>
+          <t xml:space="preserve"> SHELLA GADUGDUG</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -2063,34 +2063,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>LA295 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>14:53:00</t>
-        </is>
-      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>CASTILLON</t>
+          <t>ORFANO</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOLLY PANTORILLA</t>
+          <t xml:space="preserve"> NICANOR PANERGO</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>CASTILLON</t>
+          <t>SAMSON</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOLLY PANTORILLA</t>
+          <t xml:space="preserve"> PAUL ALDRIN </t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -2213,34 +2213,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>LA295 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>14:53:00</t>
-        </is>
-      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -2253,12 +2253,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>GAY-YA</t>
+          <t>VALENCIA</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FELICIANA</t>
+          <t xml:space="preserve"> ALFIE TRISTAN</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>GAY-YA</t>
+          <t>VILLA</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FELICIANA</t>
+          <t xml:space="preserve"> ORLANDO</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -2363,34 +2363,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>LA295 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>14:53:00</t>
-        </is>
-      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>DAP V5420 PUQ-WPU</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -2403,17 +2403,17 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>GROMIO</t>
+          <t>BORDEI</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
+          <t xml:space="preserve"> SILVIU DUMITRU</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -2478,17 +2478,17 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>GROMIO</t>
+          <t>BENTHOTA DEVAGE</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
+          <t xml:space="preserve"> UDARA MADUSAKA</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
     </row>
@@ -2510,27 +2510,27 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>CABO DE HORNOS</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>LA295 SCL-PUQ</t>
+          <t>LA91 SCL-PUQ</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:54:00</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:54:00</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>HULLANA</t>
+          <t xml:space="preserve">KAPOMBE </t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RAYMUND GARRIDO</t>
+          <t xml:space="preserve"> MIREILLE</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Congo</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2585,37 +2585,37 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>TBC</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>DIEGO DE ALMAGRO</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>LA91 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>07:58:00</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:58:00</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -2628,17 +2628,17 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>HULLANA</t>
+          <t>BOCCIA</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RAYMUND GARRIDO</t>
+          <t xml:space="preserve"> ANTONIO</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -2670,17 +2670,17 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:59:00</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>07:59:00</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>LAURENTE</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REYMARK</t>
+          <t xml:space="preserve"> GARRY</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2738,34 +2738,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>07:59:00</t>
+        </is>
+      </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:59:00</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>LAURENTE</t>
+          <t>AREVALO</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REYMARK</t>
+          <t xml:space="preserve"> TIMOTEO JR. BARNES</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -2795,75 +2795,75 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>PUQ Ato-Hotel</t>
+          <t>PUQ Hotel-Ato</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Hotel PUQ</t>
+          <t>Day use PUQ</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>TBC</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>LA295 SCL-PUQ</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>13:17:00</t>
-        </is>
-      </c>
+          <t>Cabo de Hornos</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>13:17:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Ato</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>LA310 PUQ-SCL</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>Silver Endeavour</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15 00:00:00</t>
+          <t>2024-10-05 00:00:00</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>MACAPOBRE</t>
+          <t>Emil Maltha</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HOMBRE</t>
+          <t>Zhou</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2885,37 +2885,37 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>TBC</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
+          <t>CABO DE HORNOS</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>LA95 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>13:13:00</t>
+        </is>
+      </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>13:13:00</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -2928,17 +2928,17 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>MACAPOBRE</t>
+          <t>BOGA</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HOMBRE</t>
+          <t xml:space="preserve"> FREADY HOMI</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>India</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>MAGDADARO</t>
+          <t>MACAPOBRE</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RAFFY</t>
+          <t xml:space="preserve"> HOMBRE</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -3038,34 +3038,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>13:17:00</t>
+        </is>
+      </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>13:17:00</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
       <c r="M39" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -3188,34 +3188,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>13:17:00</t>
+        </is>
+      </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>13:17:00</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
       <c r="M41" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -3228,12 +3228,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>NUNEZ</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RUEL</t>
+          <t xml:space="preserve"> SHELLA GADUGDUG</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>NUNEZ</t>
+          <t>ORFANO</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHELLA GADUGDUG</t>
+          <t xml:space="preserve"> NICANOR PANERGO</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -3338,34 +3338,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>13:18:00</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>13:18:00</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
       <c r="M43" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -3378,12 +3378,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>NUNEZ</t>
+          <t>SAMSON</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHELLA GADUGDUG</t>
+          <t xml:space="preserve"> PAUL ALDRIN </t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -3420,17 +3420,17 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13:17:00</t>
+          <t>13:18:00</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>13:17:00</t>
+          <t>13:18:00</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>ORFANO</t>
+          <t>VALENCIA</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NICANOR PANERGO</t>
+          <t xml:space="preserve"> ALFIE TRISTAN</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -3488,34 +3488,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>13:18:00</t>
+        </is>
+      </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>13:18:00</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -3528,12 +3528,12 @@
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>ORFANO</t>
+          <t>VILLA</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NICANOR PANERGO</t>
+          <t xml:space="preserve"> ORLANDO</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -3603,17 +3603,17 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>SAMSON</t>
+          <t>BORDEI</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAUL ALDRIN </t>
+          <t xml:space="preserve"> SILVIU DUMITRU</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -3638,34 +3638,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>LA91 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>14:52:00</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>14:52:00</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -3678,17 +3678,17 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>SAMSON</t>
+          <t>MASILI</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAUL ALDRIN </t>
+          <t xml:space="preserve"> ANGELO</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -3720,17 +3720,17 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>13:18:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>13:18:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>VALENCIA</t>
+          <t>BARLAAN</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALFIE TRISTAN</t>
+          <t xml:space="preserve"> MARLON</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -3788,34 +3788,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>14:53:00</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
       <c r="M49" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -3828,12 +3828,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>VALENCIA</t>
+          <t>CASTILLON</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALFIE TRISTAN</t>
+          <t xml:space="preserve"> JOLLY PANTORILLA</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -3870,17 +3870,17 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>13:18:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>13:18:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>VILLA</t>
+          <t>GAY-YA</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORLANDO</t>
+          <t xml:space="preserve"> FELICIANA</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -3938,34 +3938,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>14:53:00</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -3978,12 +3978,12 @@
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>VILLA</t>
+          <t>GROMIO</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORLANDO</t>
+          <t xml:space="preserve"> KIMBERLY PANUGAO</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -4020,17 +4020,17 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>13:18:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>13:18:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -4053,17 +4053,17 @@
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>BORDEI</t>
+          <t>HULLANA</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SILVIU DUMITRU</t>
+          <t xml:space="preserve"> RAYMUND GARRIDO</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -4088,34 +4088,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>LA295 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>14:53:00</t>
+        </is>
+      </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -4128,17 +4128,17 @@
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>BORDEI</t>
+          <t>LAURENTE</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SILVIU DUMITRU</t>
+          <t xml:space="preserve"> REYMARK</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -4238,34 +4238,34 @@
           <t>TBC</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>LA89 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>23:12:00</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>23:12:00</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>DAP V5420 PUQ-WPU</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
       <c r="M55" s="2" t="inlineStr">
         <is>
           <t>Silver Endeavour</t>
@@ -4278,24 +4278,24 @@
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>BENTHOTA DEVAGE</t>
+          <t>SCHMIDT</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UDARA MADUSAKA</t>
+          <t xml:space="preserve"> FRANZISKA</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4305,32 +4305,32 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Day use PUQ</t>
+          <t>Hotel PUQ</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Cabo de Hornos</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>DAP WPU-PUQ</t>
+          <t>LA95 SCL-PUQ</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>23:13:00</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>23:13:00</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -4343,102 +4343,102 @@
       <c r="L56" s="2" t="inlineStr"/>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Silver Endeavour</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05 00:00:00</t>
+          <t>2024-11-15 00:00:00</t>
         </is>
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>Emil Maltha</t>
+          <t>FERNANDES</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t xml:space="preserve"> ROYSTON</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>PUQ Hotel-Ato</t>
+          <t>PUQ Ato-Hotel</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Day use PUQ</t>
+          <t>Hotel PUQ</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Cabo de Hornos</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>LA95 SCL-PUQ</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>23:15:00</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>23:15:00</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Hotel</t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>LA310 PUQ-SCL</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-22</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
+          <t>Ato</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Silver Endeavour</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05 00:00:00</t>
+          <t>2024-11-15 00:00:00</t>
         </is>
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
-          <t>Emil Maltha</t>
+          <t>OWIYO</t>
         </is>
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t xml:space="preserve"> ERICK ODONGO</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Kenya</t>
         </is>
       </c>
     </row>
